--- a/results/I3_N5_M3_T30_C100_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>696.6297857789872</v>
+        <v>612.1078541869114</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.821303166844173</v>
+        <v>9.962688397563227</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.283234758917612</v>
+        <v>9.962688397563227</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.7800000000025</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.28</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -937,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1031,10 +1086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1100,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1114,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1128,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1156,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1170,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1184,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,10 +1212,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1268,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95.89000000000058</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.38500000000059</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>85.82000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>85.29500000000057</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>94.67000000000058</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>104.4450000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>101.6750000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>103.7150000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5350000000006</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>101.85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>95.89000000000058</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>81.38500000000059</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>85.82000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>85.29500000000057</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>94.67000000000058</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>147.3399999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4299999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9949999999997</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.445000000000577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.675000000000577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.71500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.53500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.33999999999972</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>59.20499999999973</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>40.42999999999972</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>57.69999999999999</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>52.99499999999972</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2165,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2305,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2316,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2349,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2355,61 +2410,6 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
